--- a/dist/document/dest/2020/10/_summary.xlsx
+++ b/dist/document/dest/2020/10/_summary.xlsx
@@ -19,7 +19,7 @@
     <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -586,11 +586,10 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -652,13 +651,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="10">
-        <v>22217</v>
+        <v>16228</v>
       </c>
       <c r="D6" s="10">
-        <v>159091897.845</v>
+        <v>112219699.164</v>
       </c>
       <c r="E6" s="10">
-        <v>84188470.138</v>
+        <v>60151636.6656</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -670,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="10">
-        <v>10959</v>
+        <v>7454</v>
       </c>
       <c r="D7" s="10">
-        <v>85023300</v>
+        <v>56296900</v>
       </c>
       <c r="E7" s="10">
-        <v>45534467</v>
+        <v>30105111</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -688,13 +687,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="10">
-        <v>20871</v>
+        <v>18575</v>
       </c>
       <c r="D8" s="10">
-        <v>113041348</v>
+        <v>95747902</v>
       </c>
       <c r="E8" s="10">
-        <v>49659876.24</v>
+        <v>40377390.76</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -706,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="10">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="D9" s="10">
-        <v>3604500</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10">
-        <v>1982475</v>
+        <v>0</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -724,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="10">
-        <v>5046</v>
+        <v>5240</v>
       </c>
       <c r="D10" s="10">
-        <v>24162000</v>
+        <v>25236000</v>
       </c>
       <c r="E10" s="10">
-        <v>13289100</v>
+        <v>13879800</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -742,13 +741,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="10">
-        <v>3045</v>
+        <v>2370</v>
       </c>
       <c r="D11" s="10">
-        <v>31590000</v>
+        <v>27981000</v>
       </c>
       <c r="E11" s="10">
-        <v>17374500</v>
+        <v>15389550</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -760,13 +759,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="10">
-        <v>22157</v>
+        <v>19469</v>
       </c>
       <c r="D12" s="10">
-        <v>235920626</v>
+        <v>205396572</v>
       </c>
       <c r="E12" s="10">
-        <v>125577898.4</v>
+        <v>108409354.8</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -778,13 +777,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="10">
-        <v>4737</v>
+        <v>4143</v>
       </c>
       <c r="D13" s="10">
-        <v>34363000</v>
+        <v>27940084</v>
       </c>
       <c r="E13" s="10">
-        <v>14786720</v>
+        <v>12468133.6</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -796,13 +795,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="10">
-        <v>6024</v>
+        <v>61103</v>
       </c>
       <c r="D14" s="10">
-        <v>35532244</v>
+        <v>540728462</v>
       </c>
       <c r="E14" s="10">
-        <v>16294537.6</v>
+        <v>270611849.8</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -814,13 +813,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="10">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10">
-        <v>110600</v>
+        <v>237000</v>
       </c>
       <c r="E15" s="10">
-        <v>58618</v>
+        <v>125610</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -832,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="10">
-        <v>28499</v>
+        <v>22269</v>
       </c>
       <c r="D16" s="10">
-        <v>159883472</v>
+        <v>128427326</v>
       </c>
       <c r="E16" s="10">
-        <v>66219388.8</v>
+        <v>53179570.4</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -850,13 +849,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="10">
-        <v>2542</v>
+        <v>2621</v>
       </c>
       <c r="D17" s="10">
-        <v>16663998.178</v>
+        <v>17091998.139</v>
       </c>
       <c r="E17" s="10">
-        <v>6769999.2712</v>
+        <v>6946999.255600001</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -868,13 +867,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="10">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="D18" s="10">
-        <v>1276200</v>
+        <v>1026000</v>
       </c>
       <c r="E18" s="10">
-        <v>701910</v>
+        <v>564300</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -886,13 +885,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="10">
-        <v>408</v>
+        <v>240</v>
       </c>
       <c r="D19" s="10">
-        <v>2825808</v>
+        <v>1662240</v>
       </c>
       <c r="E19" s="10">
-        <v>1130323.2</v>
+        <v>664896</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -904,13 +903,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="10">
-        <v>8341</v>
+        <v>7821</v>
       </c>
       <c r="D20" s="10">
-        <v>67698952</v>
+        <v>55332088</v>
       </c>
       <c r="E20" s="10">
-        <v>29283079.8</v>
+        <v>24541297.2</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -922,13 +921,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="10">
-        <v>11368</v>
+        <v>7707</v>
       </c>
       <c r="D21" s="10">
-        <v>47283498.95</v>
+        <v>41580999.585</v>
       </c>
       <c r="E21" s="10">
-        <v>23274794.58</v>
+        <v>21382729.834</v>
       </c>
       <c r="F21" s="9"/>
     </row>
@@ -940,13 +939,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="10">
-        <v>990</v>
+        <v>1645</v>
       </c>
       <c r="D22" s="10">
-        <v>7821000</v>
+        <v>12995500</v>
       </c>
       <c r="E22" s="10">
-        <v>4145130</v>
+        <v>6887615</v>
       </c>
       <c r="F22" s="9"/>
     </row>
@@ -958,13 +957,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="10">
-        <v>42441</v>
+        <v>40360</v>
       </c>
       <c r="D23" s="10">
-        <v>206906006</v>
+        <v>184027726</v>
       </c>
       <c r="E23" s="10">
-        <v>104710881.4</v>
+        <v>93969663.4</v>
       </c>
       <c r="F23" s="9"/>
     </row>
@@ -976,13 +975,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="10">
-        <v>10209</v>
+        <v>7942</v>
       </c>
       <c r="D24" s="10">
-        <v>104055300</v>
+        <v>81200400</v>
       </c>
       <c r="E24" s="10">
-        <v>41963400</v>
+        <v>32774400</v>
       </c>
       <c r="F24" s="9"/>
     </row>
@@ -994,13 +993,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="10">
-        <v>19327</v>
+        <v>15628</v>
       </c>
       <c r="D25" s="10">
-        <v>76706000</v>
+        <v>62446900</v>
       </c>
       <c r="E25" s="10">
-        <v>34514100</v>
+        <v>28096065</v>
       </c>
       <c r="F25" s="9"/>
     </row>
@@ -1012,13 +1011,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="10">
-        <v>33092</v>
+        <v>32132</v>
       </c>
       <c r="D26" s="10">
-        <v>246878786</v>
+        <v>219672610</v>
       </c>
       <c r="E26" s="10">
-        <v>102884299.4</v>
+        <v>92111044</v>
       </c>
       <c r="F26" s="9"/>
     </row>
@@ -1030,13 +1029,13 @@
         <v>30</v>
       </c>
       <c r="C27" s="10">
-        <v>4949</v>
+        <v>3227</v>
       </c>
       <c r="D27" s="10">
-        <v>48995100</v>
+        <v>31947300</v>
       </c>
       <c r="E27" s="10">
-        <v>19598040</v>
+        <v>12778920</v>
       </c>
       <c r="F27" s="9"/>
     </row>
@@ -1048,13 +1047,13 @@
         <v>31</v>
       </c>
       <c r="C28" s="10">
-        <v>58150</v>
+        <v>51849</v>
       </c>
       <c r="D28" s="10">
-        <v>498859600</v>
+        <v>515160900</v>
       </c>
       <c r="E28" s="10">
-        <v>251062352</v>
+        <v>266966374</v>
       </c>
       <c r="F28" s="9"/>
     </row>
@@ -1066,13 +1065,13 @@
         <v>32</v>
       </c>
       <c r="C29" s="10">
-        <v>20398</v>
+        <v>17479</v>
       </c>
       <c r="D29" s="10">
-        <v>65243500</v>
+        <v>55389800</v>
       </c>
       <c r="E29" s="10">
-        <v>33935980</v>
+        <v>28663655</v>
       </c>
       <c r="F29" s="9"/>
     </row>
@@ -1084,13 +1083,13 @@
         <v>33</v>
       </c>
       <c r="C30" s="10">
-        <v>2868</v>
+        <v>2785</v>
       </c>
       <c r="D30" s="10">
-        <v>13203000</v>
+        <v>15771000</v>
       </c>
       <c r="E30" s="10">
-        <v>6738600</v>
+        <v>8204400</v>
       </c>
       <c r="F30" s="9"/>
     </row>
@@ -1102,13 +1101,13 @@
         <v>34</v>
       </c>
       <c r="C31" s="10">
-        <v>3560</v>
+        <v>2174</v>
       </c>
       <c r="D31" s="10">
-        <v>13792000</v>
+        <v>5652400</v>
       </c>
       <c r="E31" s="10">
-        <v>7216400</v>
+        <v>2826200</v>
       </c>
       <c r="F31" s="9"/>
     </row>
@@ -1120,13 +1119,13 @@
         <v>35</v>
       </c>
       <c r="C32" s="10">
-        <v>16497</v>
+        <v>14520</v>
       </c>
       <c r="D32" s="10">
-        <v>220487700</v>
+        <v>192703300</v>
       </c>
       <c r="E32" s="10">
-        <v>119115366</v>
+        <v>104098754</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -1138,13 +1137,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="10">
-        <v>5460</v>
+        <v>7084</v>
       </c>
       <c r="D33" s="10">
-        <v>72526000</v>
+        <v>99275000</v>
       </c>
       <c r="E33" s="10">
-        <v>39841300</v>
+        <v>54550850</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -1156,13 +1155,13 @@
         <v>37</v>
       </c>
       <c r="C34" s="10">
-        <v>33815</v>
+        <v>27621</v>
       </c>
       <c r="D34" s="10">
-        <v>275070900</v>
+        <v>241656600</v>
       </c>
       <c r="E34" s="10">
-        <v>141665779</v>
+        <v>124958845</v>
       </c>
       <c r="F34" s="9"/>
     </row>
@@ -1174,13 +1173,13 @@
         <v>38</v>
       </c>
       <c r="C35" s="10">
-        <v>976</v>
+        <v>794</v>
       </c>
       <c r="D35" s="10">
-        <v>8603656</v>
+        <v>6867284</v>
       </c>
       <c r="E35" s="10">
-        <v>3441462.4</v>
+        <v>2746913.6</v>
       </c>
       <c r="F35" s="9"/>
     </row>
@@ -1192,13 +1191,13 @@
         <v>39</v>
       </c>
       <c r="C36" s="10">
-        <v>127294</v>
+        <v>103140</v>
       </c>
       <c r="D36" s="10">
-        <v>1143520080</v>
+        <v>936085670</v>
       </c>
       <c r="E36" s="10">
-        <v>602500244</v>
+        <v>490943258</v>
       </c>
       <c r="F36" s="9"/>
     </row>
@@ -1208,13 +1207,13 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="11">
-        <v>527070</v>
+        <v>503980</v>
       </c>
       <c r="D37" s="11">
-        <v>4020740072.973</v>
+        <v>3997756660.888</v>
       </c>
       <c r="E37" s="11">
-        <v>2009459492.2292001</v>
+        <v>2009375186.3151999</v>
       </c>
       <c r="F37" s="12"/>
     </row>
